--- a/data/DemandGroup16.xlsx
+++ b/data/DemandGroup16.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mjribeiro/Documents/courses/AE4423 Airline Planning &amp; Optimisation/2024/assignments/To Students/Assignment1/Data/Exercise1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gijsvdklink/Documents/Airline planning and optimisation /Assignment_1/airline planning 2/Airline_planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{770D7FF8-E39C-C94C-9C3F-F5D290F6BC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8614C9-52DA-8F4B-97AF-67F0C500124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10060" yWindow="10660" windowWidth="21240" windowHeight="8940" xr2:uid="{FB73AE3F-7B15-3D43-954F-214C39B187E1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{FB73AE3F-7B15-3D43-954F-214C39B187E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 16" sheetId="1" r:id="rId1"/>
+    <sheet name="airport_data" sheetId="2" r:id="rId2"/>
+    <sheet name="demand_per_week" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
   <si>
     <t>LPMA</t>
   </si>
@@ -568,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB7C078-BE81-094E-8252-40B679236DA9}">
   <dimension ref="A1:V32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:V32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2374,4 +2376,1789 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D5FF63-9D06-7D4A-9CF6-D8DC4AA41F30}">
+  <dimension ref="A1:V6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G47" sqref="G47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>30</v>
+      </c>
+      <c r="T1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>51.470599999999997</v>
+      </c>
+      <c r="D3">
+        <v>49.012799999999999</v>
+      </c>
+      <c r="E3">
+        <v>52.308599999999998</v>
+      </c>
+      <c r="F3">
+        <v>50.033299999999997</v>
+      </c>
+      <c r="G3">
+        <v>40.471899999999998</v>
+      </c>
+      <c r="H3">
+        <v>41.2971</v>
+      </c>
+      <c r="I3">
+        <v>48.3538</v>
+      </c>
+      <c r="J3">
+        <v>41.8003</v>
+      </c>
+      <c r="K3">
+        <v>53.421300000000002</v>
+      </c>
+      <c r="L3">
+        <v>59.651899999999998</v>
+      </c>
+      <c r="M3">
+        <v>38.781300000000002</v>
+      </c>
+      <c r="N3">
+        <v>52.559699999999999</v>
+      </c>
+      <c r="O3">
+        <v>60.3172</v>
+      </c>
+      <c r="P3">
+        <v>52.165700000000001</v>
+      </c>
+      <c r="Q3">
+        <v>55.95</v>
+      </c>
+      <c r="R3">
+        <v>44.571100000000001</v>
+      </c>
+      <c r="S3">
+        <v>35.339700000000001</v>
+      </c>
+      <c r="T3">
+        <v>63.984999999999999</v>
+      </c>
+      <c r="U3">
+        <v>38.110799999999998</v>
+      </c>
+      <c r="V3">
+        <v>32.697899999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4">
+        <v>-0.46194000000000002</v>
+      </c>
+      <c r="D4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E4">
+        <v>4.7638999999999996</v>
+      </c>
+      <c r="F4">
+        <v>8.5706000000000007</v>
+      </c>
+      <c r="G4">
+        <v>-3.5626000000000002</v>
+      </c>
+      <c r="H4">
+        <v>2.0785</v>
+      </c>
+      <c r="I4">
+        <v>11.786099999999999</v>
+      </c>
+      <c r="J4">
+        <v>12.238899999999999</v>
+      </c>
+      <c r="K4">
+        <v>-6.2701000000000002</v>
+      </c>
+      <c r="L4">
+        <v>17.918600000000001</v>
+      </c>
+      <c r="M4">
+        <v>-9.1358999999999995</v>
+      </c>
+      <c r="N4">
+        <v>13.287699999999999</v>
+      </c>
+      <c r="O4">
+        <v>24.9633</v>
+      </c>
+      <c r="P4">
+        <v>20.967099999999999</v>
+      </c>
+      <c r="Q4">
+        <v>-3.3725000000000001</v>
+      </c>
+      <c r="R4">
+        <v>26.085000000000001</v>
+      </c>
+      <c r="S4">
+        <v>25.180299999999999</v>
+      </c>
+      <c r="T4">
+        <v>-22.605599999999999</v>
+      </c>
+      <c r="U4">
+        <v>13.3133</v>
+      </c>
+      <c r="V4">
+        <v>-16.7745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
+        <v>3200</v>
+      </c>
+      <c r="D5">
+        <v>3100</v>
+      </c>
+      <c r="E5">
+        <v>3400</v>
+      </c>
+      <c r="F5">
+        <v>3400</v>
+      </c>
+      <c r="G5">
+        <v>3600</v>
+      </c>
+      <c r="H5">
+        <v>2700</v>
+      </c>
+      <c r="I5">
+        <v>2800</v>
+      </c>
+      <c r="J5">
+        <v>2800</v>
+      </c>
+      <c r="K5">
+        <v>2600</v>
+      </c>
+      <c r="L5">
+        <v>2700</v>
+      </c>
+      <c r="M5">
+        <v>2600</v>
+      </c>
+      <c r="N5">
+        <v>2900</v>
+      </c>
+      <c r="O5">
+        <v>2700</v>
+      </c>
+      <c r="P5">
+        <v>2500</v>
+      </c>
+      <c r="Q5">
+        <v>2200</v>
+      </c>
+      <c r="R5">
+        <v>1900</v>
+      </c>
+      <c r="S5">
+        <v>1800</v>
+      </c>
+      <c r="T5">
+        <v>2200</v>
+      </c>
+      <c r="U5">
+        <v>2300</v>
+      </c>
+      <c r="V5">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>21</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+      <c r="P6">
+        <v>2</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B443C113-1B62-AB4E-9F87-CD46E202DA44}">
+  <dimension ref="A1:V21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>7</v>
+      </c>
+      <c r="P1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>957</v>
+      </c>
+      <c r="E2">
+        <v>630</v>
+      </c>
+      <c r="F2">
+        <v>290</v>
+      </c>
+      <c r="G2">
+        <v>221</v>
+      </c>
+      <c r="H2">
+        <v>167</v>
+      </c>
+      <c r="I2">
+        <v>274</v>
+      </c>
+      <c r="J2">
+        <v>205</v>
+      </c>
+      <c r="K2">
+        <v>508</v>
+      </c>
+      <c r="L2">
+        <v>131</v>
+      </c>
+      <c r="M2">
+        <v>44</v>
+      </c>
+      <c r="N2">
+        <v>432</v>
+      </c>
+      <c r="O2">
+        <v>79</v>
+      </c>
+      <c r="P2">
+        <v>93</v>
+      </c>
+      <c r="Q2">
+        <v>274</v>
+      </c>
+      <c r="R2">
+        <v>69</v>
+      </c>
+      <c r="S2">
+        <v>20</v>
+      </c>
+      <c r="T2">
+        <v>46</v>
+      </c>
+      <c r="U2">
+        <v>67</v>
+      </c>
+      <c r="V2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>957</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>274</v>
+      </c>
+      <c r="F3">
+        <v>236</v>
+      </c>
+      <c r="G3">
+        <v>125</v>
+      </c>
+      <c r="H3">
+        <v>114</v>
+      </c>
+      <c r="I3">
+        <v>197</v>
+      </c>
+      <c r="J3">
+        <v>144</v>
+      </c>
+      <c r="K3">
+        <v>131</v>
+      </c>
+      <c r="L3">
+        <v>59</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>250</v>
+      </c>
+      <c r="O3">
+        <v>33</v>
+      </c>
+      <c r="P3">
+        <v>65</v>
+      </c>
+      <c r="Q3">
+        <v>68</v>
+      </c>
+      <c r="R3">
+        <v>33</v>
+      </c>
+      <c r="S3">
+        <v>24</v>
+      </c>
+      <c r="T3">
+        <v>32</v>
+      </c>
+      <c r="U3">
+        <v>43</v>
+      </c>
+      <c r="V3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>630</v>
+      </c>
+      <c r="D4">
+        <v>274</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>189</v>
+      </c>
+      <c r="G4">
+        <v>78</v>
+      </c>
+      <c r="H4">
+        <v>42</v>
+      </c>
+      <c r="I4">
+        <v>151</v>
+      </c>
+      <c r="J4">
+        <v>91</v>
+      </c>
+      <c r="K4">
+        <v>95</v>
+      </c>
+      <c r="L4">
+        <v>66</v>
+      </c>
+      <c r="M4">
+        <v>23</v>
+      </c>
+      <c r="N4">
+        <v>248</v>
+      </c>
+      <c r="O4">
+        <v>38</v>
+      </c>
+      <c r="P4">
+        <v>43</v>
+      </c>
+      <c r="Q4">
+        <v>65</v>
+      </c>
+      <c r="R4">
+        <v>19</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>35</v>
+      </c>
+      <c r="V4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>290</v>
+      </c>
+      <c r="D5">
+        <v>236</v>
+      </c>
+      <c r="E5">
+        <v>189</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>61</v>
+      </c>
+      <c r="H5">
+        <v>42</v>
+      </c>
+      <c r="I5">
+        <v>313</v>
+      </c>
+      <c r="J5">
+        <v>81</v>
+      </c>
+      <c r="K5">
+        <v>45</v>
+      </c>
+      <c r="L5">
+        <v>52</v>
+      </c>
+      <c r="M5">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>310</v>
+      </c>
+      <c r="O5">
+        <v>47</v>
+      </c>
+      <c r="P5">
+        <v>64</v>
+      </c>
+      <c r="Q5">
+        <v>54</v>
+      </c>
+      <c r="R5">
+        <v>36</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>21</v>
+      </c>
+      <c r="U5">
+        <v>40</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+      <c r="D6">
+        <v>125</v>
+      </c>
+      <c r="E6">
+        <v>78</v>
+      </c>
+      <c r="F6">
+        <v>61</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>219</v>
+      </c>
+      <c r="I6">
+        <v>84</v>
+      </c>
+      <c r="J6">
+        <v>97</v>
+      </c>
+      <c r="K6">
+        <v>81</v>
+      </c>
+      <c r="L6">
+        <v>34</v>
+      </c>
+      <c r="M6">
+        <v>118</v>
+      </c>
+      <c r="N6">
+        <v>111</v>
+      </c>
+      <c r="O6">
+        <v>19</v>
+      </c>
+      <c r="P6">
+        <v>29</v>
+      </c>
+      <c r="Q6">
+        <v>48</v>
+      </c>
+      <c r="R6">
+        <v>32</v>
+      </c>
+      <c r="S6">
+        <v>21</v>
+      </c>
+      <c r="T6">
+        <v>17</v>
+      </c>
+      <c r="U6">
+        <v>51</v>
+      </c>
+      <c r="V6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>167</v>
+      </c>
+      <c r="D7">
+        <v>114</v>
+      </c>
+      <c r="E7">
+        <v>42</v>
+      </c>
+      <c r="F7">
+        <v>42</v>
+      </c>
+      <c r="G7">
+        <v>219</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>76</v>
+      </c>
+      <c r="J7">
+        <v>140</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>85</v>
+      </c>
+      <c r="O7">
+        <v>9</v>
+      </c>
+      <c r="P7">
+        <v>11</v>
+      </c>
+      <c r="Q7">
+        <v>17</v>
+      </c>
+      <c r="R7">
+        <v>32</v>
+      </c>
+      <c r="S7">
+        <v>16</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+      <c r="U7">
+        <v>53</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>197</v>
+      </c>
+      <c r="E8">
+        <v>151</v>
+      </c>
+      <c r="F8">
+        <v>313</v>
+      </c>
+      <c r="G8">
+        <v>84</v>
+      </c>
+      <c r="H8">
+        <v>76</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>176</v>
+      </c>
+      <c r="K8">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>68</v>
+      </c>
+      <c r="M8">
+        <v>13</v>
+      </c>
+      <c r="N8">
+        <v>385</v>
+      </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
+      <c r="P8">
+        <v>80</v>
+      </c>
+      <c r="Q8">
+        <v>31</v>
+      </c>
+      <c r="R8">
+        <v>50</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+      <c r="U8">
+        <v>47</v>
+      </c>
+      <c r="V8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>205</v>
+      </c>
+      <c r="D9">
+        <v>144</v>
+      </c>
+      <c r="E9">
+        <v>91</v>
+      </c>
+      <c r="F9">
+        <v>81</v>
+      </c>
+      <c r="G9">
+        <v>97</v>
+      </c>
+      <c r="H9">
+        <v>140</v>
+      </c>
+      <c r="I9">
+        <v>176</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>66</v>
+      </c>
+      <c r="M9">
+        <v>34</v>
+      </c>
+      <c r="N9">
+        <v>170</v>
+      </c>
+      <c r="O9">
+        <v>33</v>
+      </c>
+      <c r="P9">
+        <v>48</v>
+      </c>
+      <c r="Q9">
+        <v>34</v>
+      </c>
+      <c r="R9">
+        <v>48</v>
+      </c>
+      <c r="S9">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <v>24</v>
+      </c>
+      <c r="U9">
+        <v>208</v>
+      </c>
+      <c r="V9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>508</v>
+      </c>
+      <c r="D10">
+        <v>131</v>
+      </c>
+      <c r="E10">
+        <v>95</v>
+      </c>
+      <c r="F10">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>81</v>
+      </c>
+      <c r="H10">
+        <v>50</v>
+      </c>
+      <c r="I10">
+        <v>73</v>
+      </c>
+      <c r="J10">
+        <v>37</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>23</v>
+      </c>
+      <c r="N10">
+        <v>96</v>
+      </c>
+      <c r="O10">
+        <v>42</v>
+      </c>
+      <c r="P10">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>181</v>
+      </c>
+      <c r="R10">
+        <v>13</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>35</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>131</v>
+      </c>
+      <c r="D11">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>52</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>68</v>
+      </c>
+      <c r="J11">
+        <v>66</v>
+      </c>
+      <c r="K11">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11">
+        <v>187</v>
+      </c>
+      <c r="O11">
+        <v>174</v>
+      </c>
+      <c r="P11">
+        <v>52</v>
+      </c>
+      <c r="Q11">
+        <v>39</v>
+      </c>
+      <c r="R11">
+        <v>16</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>15</v>
+      </c>
+      <c r="U11">
+        <v>8</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
+        <v>23</v>
+      </c>
+      <c r="F12">
+        <v>17</v>
+      </c>
+      <c r="G12">
+        <v>118</v>
+      </c>
+      <c r="H12">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>34</v>
+      </c>
+      <c r="K12">
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>18</v>
+      </c>
+      <c r="O12">
+        <v>7</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="Q12">
+        <v>11</v>
+      </c>
+      <c r="R12">
+        <v>19</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>19</v>
+      </c>
+      <c r="V12">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>432</v>
+      </c>
+      <c r="D13">
+        <v>250</v>
+      </c>
+      <c r="E13">
+        <v>248</v>
+      </c>
+      <c r="F13">
+        <v>310</v>
+      </c>
+      <c r="G13">
+        <v>111</v>
+      </c>
+      <c r="H13">
+        <v>85</v>
+      </c>
+      <c r="I13">
+        <v>385</v>
+      </c>
+      <c r="J13">
+        <v>170</v>
+      </c>
+      <c r="K13">
+        <v>96</v>
+      </c>
+      <c r="L13">
+        <v>187</v>
+      </c>
+      <c r="M13">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>112</v>
+      </c>
+      <c r="P13">
+        <v>205</v>
+      </c>
+      <c r="Q13">
+        <v>79</v>
+      </c>
+      <c r="R13">
+        <v>74</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <v>38</v>
+      </c>
+      <c r="U13">
+        <v>67</v>
+      </c>
+      <c r="V13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>79</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>38</v>
+      </c>
+      <c r="F14">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>9</v>
+      </c>
+      <c r="I14">
+        <v>38</v>
+      </c>
+      <c r="J14">
+        <v>33</v>
+      </c>
+      <c r="K14">
+        <v>42</v>
+      </c>
+      <c r="L14">
+        <v>174</v>
+      </c>
+      <c r="M14">
+        <v>7</v>
+      </c>
+      <c r="N14">
+        <v>112</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>43</v>
+      </c>
+      <c r="Q14">
+        <v>35</v>
+      </c>
+      <c r="R14">
+        <v>27</v>
+      </c>
+      <c r="S14">
+        <v>3</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>3</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>43</v>
+      </c>
+      <c r="F15">
+        <v>64</v>
+      </c>
+      <c r="G15">
+        <v>29</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>80</v>
+      </c>
+      <c r="J15">
+        <v>48</v>
+      </c>
+      <c r="K15">
+        <v>27</v>
+      </c>
+      <c r="L15">
+        <v>52</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>205</v>
+      </c>
+      <c r="O15">
+        <v>43</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>32</v>
+      </c>
+      <c r="R15">
+        <v>30</v>
+      </c>
+      <c r="S15">
+        <v>5</v>
+      </c>
+      <c r="T15">
+        <v>21</v>
+      </c>
+      <c r="U15">
+        <v>9</v>
+      </c>
+      <c r="V15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>274</v>
+      </c>
+      <c r="D16">
+        <v>68</v>
+      </c>
+      <c r="E16">
+        <v>65</v>
+      </c>
+      <c r="F16">
+        <v>54</v>
+      </c>
+      <c r="G16">
+        <v>48</v>
+      </c>
+      <c r="H16">
+        <v>17</v>
+      </c>
+      <c r="I16">
+        <v>31</v>
+      </c>
+      <c r="J16">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>181</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>79</v>
+      </c>
+      <c r="O16">
+        <v>35</v>
+      </c>
+      <c r="P16">
+        <v>32</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>24</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>69</v>
+      </c>
+      <c r="D17">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>36</v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17">
+        <v>32</v>
+      </c>
+      <c r="I17">
+        <v>50</v>
+      </c>
+      <c r="J17">
+        <v>48</v>
+      </c>
+      <c r="K17">
+        <v>13</v>
+      </c>
+      <c r="L17">
+        <v>16</v>
+      </c>
+      <c r="M17">
+        <v>19</v>
+      </c>
+      <c r="N17">
+        <v>74</v>
+      </c>
+      <c r="O17">
+        <v>27</v>
+      </c>
+      <c r="P17">
+        <v>30</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>23</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>35</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>21</v>
+      </c>
+      <c r="H18">
+        <v>16</v>
+      </c>
+      <c r="I18">
+        <v>8</v>
+      </c>
+      <c r="J18">
+        <v>12</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>15</v>
+      </c>
+      <c r="N18">
+        <v>12</v>
+      </c>
+      <c r="O18">
+        <v>3</v>
+      </c>
+      <c r="P18">
+        <v>5</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="R18">
+        <v>23</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>16</v>
+      </c>
+      <c r="V18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>46</v>
+      </c>
+      <c r="D19">
+        <v>32</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>9</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>24</v>
+      </c>
+      <c r="K19">
+        <v>11</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>38</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19">
+        <v>21</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>19</v>
+      </c>
+      <c r="V19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>67</v>
+      </c>
+      <c r="D20">
+        <v>43</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
+        <v>40</v>
+      </c>
+      <c r="G20">
+        <v>51</v>
+      </c>
+      <c r="H20">
+        <v>53</v>
+      </c>
+      <c r="I20">
+        <v>47</v>
+      </c>
+      <c r="J20">
+        <v>208</v>
+      </c>
+      <c r="K20">
+        <v>35</v>
+      </c>
+      <c r="L20">
+        <v>8</v>
+      </c>
+      <c r="M20">
+        <v>19</v>
+      </c>
+      <c r="N20">
+        <v>67</v>
+      </c>
+      <c r="O20">
+        <v>3</v>
+      </c>
+      <c r="P20">
+        <v>9</v>
+      </c>
+      <c r="Q20">
+        <v>24</v>
+      </c>
+      <c r="R20">
+        <v>35</v>
+      </c>
+      <c r="S20">
+        <v>16</v>
+      </c>
+      <c r="T20">
+        <v>19</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>13</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>23</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>11</v>
+      </c>
+      <c r="J21">
+        <v>18</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26</v>
+      </c>
+      <c r="N21">
+        <v>12</v>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21">
+        <v>12</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>9</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <v>5</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/DemandGroup16.xlsx
+++ b/data/DemandGroup16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gijsvdklink/Documents/Airline planning and optimisation /Assignment_1/airline planning 2/Airline_planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8614C9-52DA-8F4B-97AF-67F0C500124F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A414416C-9727-984D-83EF-38DB7F18EF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{FB73AE3F-7B15-3D43-954F-214C39B187E1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" activeTab="2" xr2:uid="{FB73AE3F-7B15-3D43-954F-214C39B187E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 16" sheetId="1" r:id="rId1"/>
@@ -2383,10 +2383,13 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2788,7 +2791,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/DemandGroup16.xlsx
+++ b/data/DemandGroup16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gijsvdklink/Documents/Airline planning and optimisation /Assignment_1/airline planning 2/Airline_planning/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gijsvdklink/Documents/Airline planning and optimisation /Assignment_1/Airline_planning/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A414416C-9727-984D-83EF-38DB7F18EF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02505AE5-F6D6-4145-8732-8F2B3C0535FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" activeTab="2" xr2:uid="{FB73AE3F-7B15-3D43-954F-214C39B187E1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" activeTab="1" xr2:uid="{FB73AE3F-7B15-3D43-954F-214C39B187E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Group 16" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="53">
   <si>
     <t>LPMA</t>
   </si>
@@ -2382,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D5FF63-9D06-7D4A-9CF6-D8DC4AA41F30}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V1" sqref="V1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2729,8 +2729,8 @@
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
-        <v>21</v>
+      <c r="F6">
+        <v>999999</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -2790,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B443C113-1B62-AB4E-9F87-CD46E202DA44}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
